--- a/input.xlsx
+++ b/input.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpsmu-my.sharepoint.com/personal/dcea_smu_cl/Documents/Automatizacion_SAC/GitHub Respository/zclient-banking-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D2F04E46CFB4ACB3E207DB5D5F69A693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27124917-9F3D-42F2-B68D-8EBE77B5D863}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D2F04E46CFB4ACB3E207DB5D5F69A693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9250B86-1C05-460B-AFC4-DB05328CF8A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>mail</t>
   </si>
+  <si>
+    <t>contacto.diego.c@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,17 +359,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpsmu-my.sharepoint.com/personal/dcea_smu_cl/Documents/Automatizacion_SAC/GitHub Respository/zclient-banking-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D2F04E46CFB4ACB3E207DB5D5F69A693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9250B86-1C05-460B-AFC4-DB05328CF8A8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_04C0AAAFDE078945A7ADA25A2D1F567D85AE9D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3BA1F20-E731-4745-BFCB-B4E151764C14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>contacto.diego.c@gmail.com</t>
+    <t>ticketId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,14 +80,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,20 +135,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -174,12 +178,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -218,151 +222,176 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A12" sqref="A12:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -370,14 +399,109 @@
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>793132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>793127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>786612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>793605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>793317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>792775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>792725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>792188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>792137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>789870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>793604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>792982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>792743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>792733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>792728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>792721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>789843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>788724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>788718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>788092</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpsmu-my.sharepoint.com/personal/dcea_smu_cl/Documents/Automatizacion_SAC/GitHub Respository/zclient-banking-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_04C0AAAFDE078945A7ADA25A2D1F567D85AE9D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3BA1F20-E731-4745-BFCB-B4E151764C14}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_04C0AAAFDE078945A7ADA25A2D1F567D85AE9D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBBCFE9-E1DA-43D4-929D-F5A73F385C06}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,7 +81,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,120 +390,83 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>793132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>793127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>786612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>793605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
         <v>793317</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>792775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>792725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>792188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>792137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>789870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>793604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>792982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>792743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>792733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>792728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>792721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>789843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>788724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>788718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>788092</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,34 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29203"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpsmu-my.sharepoint.com/personal/dcea_smu_cl/Documents/Automatizacion_SAC/GitHub Respository/zclient-banking-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_04C0AAAFDE078945A7ADA25A2D1F567D85AE9D66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBBCFE9-E1DA-43D4-929D-F5A73F385C06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_0E4CE9B3DE078945A7ADA226DDC3EDC192F22FF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,7 +52,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -79,9 +71,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,86 +384,132 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>793317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0E4CE9B3DE078945A7ADA226DDC3EDC192F22FF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpsmu-my.sharepoint.com/personal/dcea_smu_cl/Documents/Automatizacion_SAC/GitHub Respository/zclient-banking-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_0E4CE9B3DE078945A7ADA226DDC3EDC192F22FF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70EBDA52-833E-45F5-9EC8-24086C5C73E7}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -29,19 +45,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,14 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,12 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -384,130 +384,246 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A38" s="2"/>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>804686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>804685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>804684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>804683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>804680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>804678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>803616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>798845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>804529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>804290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>803552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>803163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>803124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>802687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>802557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>802488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>802255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>802250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>802249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>802241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>802237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>802235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>802232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>802213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>802031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>801992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>801290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>801228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>800439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>800398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>799174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>798010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>804530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>804528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>804527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>804526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>804525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>802260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>802246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>802242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>801990</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>801905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>799588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>798742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>798272</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
